--- a/docs/Sample Fake SGS.xlsx
+++ b/docs/Sample Fake SGS.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deleum-my.sharepoint.com/personal/adam_mohdtaufik_deleum_com/Documents/Documents/ToolStringEditor/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{ECE3F089-C615-46B2-9164-869D81D11D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{625AD731-5D75-413F-8B3C-425984D9B51E}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{ECE3F089-C615-46B2-9164-869D81D11D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E78ED0-E101-4CFB-A48F-83AC4AFD9462}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{B803CAF7-5485-4ABE-B05F-5EF9CE966BDE}"/>
+    <workbookView xWindow="18765" yWindow="3540" windowWidth="28800" windowHeight="11835" activeTab="1" xr2:uid="{B803CAF7-5485-4ABE-B05F-5EF9CE966BDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Real SGS" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Column1</t>
   </si>
@@ -56,12 +57,18 @@
   <si>
     <t>Temperature</t>
   </si>
+  <si>
+    <t>TVDDF</t>
+  </si>
+  <si>
+    <t>[ft]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,16 +87,39 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -125,6 +155,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -139,12 +195,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,7 +248,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -221,6 +282,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2690,6 +2752,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9C3D65C-82A2-4D00-8CE5-3191AF2BE02E}" name="Table13" displayName="Table13" ref="B2:D11" totalsRowShown="0">
   <autoFilter ref="B2:D11" xr:uid="{BB40D8D1-D265-4E42-A374-89B12D5AA5FB}"/>
@@ -2717,10 +2783,10 @@
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{64F0CBC6-EC40-49A1-899F-DB200FDAFFEC}" name="Depth"/>
-    <tableColumn id="4" xr3:uid="{61679110-0E0F-417C-B4EE-EA2395CD15D0}" name="Column1" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{61679110-0E0F-417C-B4EE-EA2395CD15D0}" name="Column1" dataDxfId="2">
       <calculatedColumnFormula>-Table1[[#This Row],[ft-TVD]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{751B0FF3-D1BE-41CC-A4D1-81CFF966401B}" name="ft-TVD" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{751B0FF3-D1BE-41CC-A4D1-81CFF966401B}" name="ft-TVD" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{B69B820E-3D1E-40D0-BA4B-14181BD51711}" name="Pressure "/>
     <tableColumn id="5" xr3:uid="{E93B4EE1-754D-4D84-8ADB-B75AEAE6A7B6}" name="Temperature" dataDxfId="0"/>
   </tableColumns>
@@ -3051,13 +3117,13 @@
       <selection activeCell="C3" sqref="C3:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3068,7 +3134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4">
       <c r="B3">
         <v>0</v>
       </c>
@@ -3080,7 +3146,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>-1000</v>
       </c>
@@ -3092,7 +3158,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>-2000</v>
       </c>
@@ -3104,7 +3170,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>-3000</v>
       </c>
@@ -3116,7 +3182,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>-4000</v>
       </c>
@@ -3128,7 +3194,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>-4400</v>
       </c>
@@ -3140,7 +3206,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>-4600</v>
       </c>
@@ -3152,7 +3218,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>-4800</v>
       </c>
@@ -3164,7 +3230,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>-5000</v>
       </c>
@@ -3187,13 +3253,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FF695B-1ACC-424A-8538-073C4D3AF51B}">
-  <dimension ref="B1:F38"/>
+  <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="116" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
@@ -3201,12 +3267,12 @@
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -3223,7 +3289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15" customHeight="1">
       <c r="B3">
         <v>-40.999992678399998</v>
       </c>
@@ -3241,7 +3307,7 @@
         <v>257.58460000000002</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15" customHeight="1">
       <c r="B4">
         <v>-540.66116941199994</v>
       </c>
@@ -3259,7 +3325,7 @@
         <v>261.37619999999998</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>-1124.3124851800001</v>
       </c>
@@ -3277,7 +3343,7 @@
         <v>260.55829999999997</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6">
       <c r="B6">
         <v>-1217.29844222</v>
       </c>
@@ -3295,7 +3361,7 @@
         <v>259.4418</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6">
       <c r="B7">
         <v>-1484.5182422199998</v>
       </c>
@@ -3313,7 +3379,7 @@
         <v>258.649</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6">
       <c r="B8">
         <v>-1887.9058571799999</v>
       </c>
@@ -3331,7 +3397,7 @@
         <v>257.49700000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6">
       <c r="B9">
         <v>-2139.5365871200001</v>
       </c>
@@ -3349,7 +3415,7 @@
         <v>255.45230000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6">
       <c r="B10">
         <v>-2209.2650387000003</v>
       </c>
@@ -3367,7 +3433,7 @@
         <v>252.60929999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6">
       <c r="B11">
         <v>-2417.5306545200001</v>
       </c>
@@ -3385,7 +3451,7 @@
         <v>248.90620000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6">
       <c r="B12">
         <v>-2591.0392726199998</v>
       </c>
@@ -3403,7 +3469,7 @@
         <v>245.89709999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6">
       <c r="B13">
         <v>-2938.5771042799997</v>
       </c>
@@ -3421,7 +3487,7 @@
         <v>243.06129999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6">
       <c r="B14">
         <v>-3043.5735107800001</v>
       </c>
@@ -3439,7 +3505,7 @@
         <v>241.21420000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6">
       <c r="B15">
         <v>-3113.67854962</v>
       </c>
@@ -3457,7 +3523,7 @@
         <v>239.93350000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6">
       <c r="B16">
         <v>-3288.29934602</v>
       </c>
@@ -3475,7 +3541,7 @@
         <v>237.3605</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17">
         <v>-3633.7804003800002</v>
       </c>
@@ -3493,7 +3559,7 @@
         <v>233.7998</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18">
         <v>-3806.7925439800001</v>
       </c>
@@ -3511,7 +3577,7 @@
         <v>229.7467</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19">
         <v>-3841.29789532</v>
       </c>
@@ -3529,7 +3595,7 @@
         <v>225.86240000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20">
         <v>-4049.2595510199999</v>
       </c>
@@ -3547,7 +3613,7 @@
         <v>221.9563</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21">
         <v>-4127.1562303800001</v>
       </c>
@@ -3564,9 +3630,15 @@
       <c r="F21" s="1">
         <v>217.77279999999999</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="5">
+      <c r="L21">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="M21">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
+      <c r="C22" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-4703.9482930000004</v>
       </c>
@@ -3579,9 +3651,15 @@
       <c r="F22" s="1">
         <v>215.87110000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="5">
+      <c r="L22">
+        <v>8.3500000000000005E-2</v>
+      </c>
+      <c r="M22">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
+      <c r="C23" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-4469.1711070000001</v>
       </c>
@@ -3594,9 +3672,15 @@
       <c r="F23" s="1">
         <v>210.3126</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="5">
+      <c r="L23">
+        <v>4.02E-2</v>
+      </c>
+      <c r="M23">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
+      <c r="C24" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-4231.6264510000001</v>
       </c>
@@ -3609,9 +3693,15 @@
       <c r="F24" s="1">
         <v>203.9248</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="5">
+      <c r="L24">
+        <v>0.19009999999999999</v>
+      </c>
+      <c r="M24">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
+      <c r="C25" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-3992.9196700000002</v>
       </c>
@@ -3624,9 +3714,15 @@
       <c r="F25" s="1">
         <v>197.27459999999999</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="5">
+      <c r="L25">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="M25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
+      <c r="C26" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-3757.3584150000002</v>
       </c>
@@ -3640,8 +3736,8 @@
         <v>191.1712</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="5">
+    <row r="27" spans="2:13">
+      <c r="C27" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-3522.985416</v>
       </c>
@@ -3655,8 +3751,8 @@
         <v>184.29839999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="5">
+    <row r="28" spans="2:13">
+      <c r="C28" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-3501.0497850000002</v>
       </c>
@@ -3670,8 +3766,8 @@
         <v>182.0284</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="5">
+    <row r="29" spans="2:13">
+      <c r="C29" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-3221.9750210000002</v>
       </c>
@@ -3685,8 +3781,8 @@
         <v>176.92060000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="5">
+    <row r="30" spans="2:13">
+      <c r="C30" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-2971.3129990000002</v>
       </c>
@@ -3700,8 +3796,8 @@
         <v>169.66569999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="5">
+    <row r="31" spans="2:13">
+      <c r="C31" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-2715.4716990000002</v>
       </c>
@@ -3715,8 +3811,8 @@
         <v>162.27869999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="5">
+    <row r="32" spans="2:13">
+      <c r="C32" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-2461.2648180000001</v>
       </c>
@@ -3730,8 +3826,8 @@
         <v>155.15530000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="5">
+    <row r="33" spans="3:6">
+      <c r="C33" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-2219.7776480000002</v>
       </c>
@@ -3745,8 +3841,8 @@
         <v>149.34270000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="5">
+    <row r="34" spans="3:6">
+      <c r="C34" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-2198.7019460000001</v>
       </c>
@@ -3760,8 +3856,8 @@
         <v>147.1696</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="5">
+    <row r="35" spans="3:6">
+      <c r="C35" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-1904.2761410000001</v>
       </c>
@@ -3775,8 +3871,8 @@
         <v>142.73740000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="5">
+    <row r="36" spans="3:6">
+      <c r="C36" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-1449.400083</v>
       </c>
@@ -3790,8 +3886,8 @@
         <v>132.52279999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="5">
+    <row r="37" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C37" s="3">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>-772.64895120000006</v>
       </c>
@@ -3805,16 +3901,15 @@
         <v>119.4481</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7">
+    <row r="38" spans="3:6" ht="15.75" customHeight="1">
+      <c r="C38" s="5">
         <f>-Table1[[#This Row],[ft-TVD]]</f>
         <v>0</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="5">
         <v>0</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="6">
         <v>813.02629999999999</v>
       </c>
       <c r="F38" s="1">
@@ -3827,6 +3922,172 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8350FDEB-50D1-482A-9278-984730E69544}">
+  <dimension ref="B1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:2" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:2">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="9">
+        <v>950.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="9">
+        <v>1453.93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="9">
+        <v>1551.79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="9">
+        <v>2403.1999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="9">
+        <v>2502.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="9">
+        <v>3136.86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="9">
+        <v>3235.33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="9">
+        <v>3677.42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="9">
+        <v>3775.62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="9">
+        <v>4063.3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="9">
+        <v>4161.5200000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="9">
+        <v>4303.93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9">
+        <v>4451.22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="9">
+        <v>4646.58</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9">
+        <v>4790.21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="9">
+        <v>4931.74</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="9">
+        <v>5115.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="9">
+        <v>5333.6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="9">
+        <v>5417.65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="9">
+        <v>5499.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="9">
+        <v>5579.68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="9">
+        <v>5657.14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="9">
+        <v>6028.55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="9">
+        <v>6258.76</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="9">
+        <v>6377.92</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="9">
+        <v>6463.14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="9">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4090,14 +4351,14 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{00832C19-A0A1-4489-BEEA-EABBCCA02EC6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="0cdfd0ba-34e4-4431-ab1e-7c109deae85f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="facdeb5f-d21f-4ac9-b1e1-3cb3c7974302"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
